--- a/DirectTest_Summary.xlsx
+++ b/DirectTest_Summary.xlsx
@@ -501,13 +501,13 @@
         <v>0.8139</v>
       </c>
       <c r="G4" s="2">
-        <v>0.1632</v>
+        <v>0.1327</v>
       </c>
       <c r="H4" s="2">
-        <v>0.1376</v>
+        <v>0.1021</v>
       </c>
       <c r="I4" s="2">
-        <v>0.1484</v>
+        <v>0.1124</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -530,13 +530,13 @@
         <v>0.8139</v>
       </c>
       <c r="G5" s="2">
-        <v>0.1632</v>
+        <v>0.1327</v>
       </c>
       <c r="H5" s="2">
-        <v>0.1376</v>
+        <v>0.1021</v>
       </c>
       <c r="I5" s="2">
-        <v>0.1484</v>
+        <v>0.1124</v>
       </c>
     </row>
   </sheetData>
